--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -5509,7 +5509,9 @@
       <c r="C116" t="n">
         <v>16.7</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>14.1</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -5520,7 +5522,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>16.95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117">
@@ -10599,7 +10601,9 @@
       <c r="C116" t="n">
         <v>12.5</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -10610,7 +10614,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.3</v>
+        <v>11.27</v>
       </c>
     </row>
     <row r="117">
@@ -15771,7 +15775,9 @@
       <c r="C116" t="n">
         <v>15.02</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>12.82</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -15782,7 +15788,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.62</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="117">
@@ -20943,7 +20949,9 @@
       <c r="C116" t="n">
         <v>15.2</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>11.6</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -20954,7 +20962,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>15.15</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="117">
@@ -26021,7 +26029,9 @@
       <c r="C116" t="n">
         <v>13.3</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>10.4</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -26032,7 +26042,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.8</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="117">
@@ -31193,7 +31203,9 @@
       <c r="C116" t="n">
         <v>13.2</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>10.4</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -31204,7 +31216,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.25</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="117">
@@ -36365,7 +36377,9 @@
       <c r="C116" t="n">
         <v>13.6</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>10.7</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -36376,7 +36390,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.6</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="117">
@@ -41537,7 +41551,9 @@
       <c r="C116" t="n">
         <v>14.22</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>11.32</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -41548,7 +41564,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.24</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="117">
@@ -46709,7 +46725,9 @@
       <c r="C116" t="n">
         <v>14.22</v>
       </c>
-      <c r="D116" t="inlineStr"/>
+      <c r="D116" t="n">
+        <v>11.32</v>
+      </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
@@ -46720,7 +46738,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.24</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -5512,7 +5512,9 @@
       <c r="D116" t="n">
         <v>14.1</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>14.5</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -5522,7 +5524,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>16</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="117">
@@ -10604,7 +10606,9 @@
       <c r="D116" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>9.1</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -10614,7 +10618,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>11.27</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="117">
@@ -15778,7 +15782,9 @@
       <c r="D116" t="n">
         <v>12.82</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>11.62</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -15788,7 +15794,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>14.02</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="117">
@@ -20952,7 +20958,9 @@
       <c r="D116" t="n">
         <v>11.6</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>10.2</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -20962,7 +20970,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.97</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="117">
@@ -26032,7 +26040,9 @@
       <c r="D116" t="n">
         <v>10.4</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -26042,7 +26052,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.67</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="117">
@@ -31206,7 +31216,9 @@
       <c r="D116" t="n">
         <v>10.4</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>9.5</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -31216,7 +31228,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.3</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="117">
@@ -36380,7 +36392,9 @@
       <c r="D116" t="n">
         <v>10.7</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>9.5</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -36390,7 +36404,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.63</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="117">
@@ -41554,7 +41568,9 @@
       <c r="D116" t="n">
         <v>11.32</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>10.52</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -41564,7 +41580,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.27</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="117">
@@ -46728,7 +46744,9 @@
       <c r="D116" t="n">
         <v>11.32</v>
       </c>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>10.52</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -46738,7 +46756,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.27</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -5515,8 +5515,12 @@
       <c r="E116" t="n">
         <v>14.5</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="G116" t="n">
+        <v>8.699999999999999</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -5524,7 +5528,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>15.62</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="117">
@@ -10609,8 +10613,12 @@
       <c r="E116" t="n">
         <v>9.1</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -10618,7 +10626,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>10.72</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="117">
@@ -15785,8 +15793,12 @@
       <c r="E116" t="n">
         <v>11.62</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="G116" t="n">
+        <v>8.02</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -15794,7 +15806,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.42</v>
+        <v>12.19</v>
       </c>
     </row>
     <row r="117">
@@ -20961,8 +20973,12 @@
       <c r="E116" t="n">
         <v>10.2</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5.1</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -20970,7 +20986,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.02</v>
+        <v>11.07</v>
       </c>
     </row>
     <row r="117">
@@ -26043,8 +26059,12 @@
       <c r="E116" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4.9</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -26052,7 +26072,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>11.8</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="117">
@@ -31219,8 +31239,12 @@
       <c r="E116" t="n">
         <v>9.5</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5.4</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -31228,7 +31252,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>11.6</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="117">
@@ -36395,8 +36419,12 @@
       <c r="E116" t="n">
         <v>9.5</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5.9</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -36404,7 +36432,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>11.85</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="117">
@@ -41571,8 +41599,12 @@
       <c r="E116" t="n">
         <v>10.52</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="G116" t="n">
+        <v>6</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -41580,7 +41612,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.58</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="117">
@@ -46747,8 +46779,12 @@
       <c r="E116" t="n">
         <v>10.52</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="G116" t="n">
+        <v>6</v>
+      </c>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -46756,7 +46792,7 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.58</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -5521,14 +5521,16 @@
       <c r="G116" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>9.1</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.98</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="117">
@@ -10619,14 +10621,16 @@
       <c r="G116" t="n">
         <v>4</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>2.8</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.17</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="117">
@@ -15799,14 +15803,16 @@
       <c r="G116" t="n">
         <v>8.02</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>6.42</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.19</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="117">
@@ -20979,14 +20985,16 @@
       <c r="G116" t="n">
         <v>5.1</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>4.1</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>11.07</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="117">
@@ -26065,14 +26073,16 @@
       <c r="G116" t="n">
         <v>4.9</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>4.5</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>10.2</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="117">
@@ -31245,14 +31255,16 @@
       <c r="G116" t="n">
         <v>5.4</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>2.7</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.93</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="117">
@@ -36425,14 +36437,16 @@
       <c r="G116" t="n">
         <v>5.9</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>5.4</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>10.18</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="117">
@@ -41605,14 +41619,16 @@
       <c r="G116" t="n">
         <v>6</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>10.96</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="117">
@@ -46785,14 +46801,16 @@
       <c r="G116" t="n">
         <v>6</v>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>10.96</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -5524,13 +5524,15 @@
       <c r="H116" t="n">
         <v>9.1</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>6.9</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>13.29</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="117">
@@ -10624,13 +10626,15 @@
       <c r="H116" t="n">
         <v>2.8</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>2.2</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.26</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="117">
@@ -15806,13 +15810,15 @@
       <c r="H116" t="n">
         <v>6.42</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>6.02</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>11.36</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="117">
@@ -20988,13 +20994,15 @@
       <c r="H116" t="n">
         <v>4.1</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>3</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>10.07</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="117">
@@ -26076,13 +26084,15 @@
       <c r="H116" t="n">
         <v>4.5</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>3</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.390000000000001</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="117">
@@ -31258,13 +31268,15 @@
       <c r="H116" t="n">
         <v>2.7</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>2.3</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.9</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="117">
@@ -36440,13 +36452,15 @@
       <c r="H116" t="n">
         <v>5.4</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>4.2</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.5</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="117">
@@ -41622,13 +41636,15 @@
       <c r="H116" t="n">
         <v>5</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>10.11</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="117">
@@ -46804,13 +46820,15 @@
       <c r="H116" t="n">
         <v>5</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>10.11</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -5527,12 +5527,14 @@
       <c r="I116" t="n">
         <v>6.9</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>10.7</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.49</v>
+        <v>12.29</v>
       </c>
     </row>
     <row r="117">
@@ -10629,12 +10631,14 @@
       <c r="I116" t="n">
         <v>2.2</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>7.2</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>7.5</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="117">
@@ -15813,12 +15817,14 @@
       <c r="I116" t="n">
         <v>6.02</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>9.220000000000001</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>10.69</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="117">
@@ -20997,12 +21003,14 @@
       <c r="I116" t="n">
         <v>3</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>7.6</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.19</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="117">
@@ -26087,12 +26095,14 @@
       <c r="I116" t="n">
         <v>3</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6.8</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.59</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="117">
@@ -31271,12 +31281,14 @@
       <c r="I116" t="n">
         <v>2.3</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6.2</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.07</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="117">
@@ -36455,12 +36467,14 @@
       <c r="I116" t="n">
         <v>4.2</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6.8</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.84</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="117">
@@ -41639,12 +41653,14 @@
       <c r="I116" t="n">
         <v>3.95</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>7.79</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.34</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="117">
@@ -46823,12 +46839,14 @@
       <c r="I116" t="n">
         <v>3.95</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>7.79</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.34</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -5530,11 +5530,13 @@
       <c r="J116" t="n">
         <v>10.7</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>11.9</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.29</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="117">
@@ -10634,11 +10636,13 @@
       <c r="J116" t="n">
         <v>7.2</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>6.4</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>7.47</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="117">
@@ -15820,11 +15824,13 @@
       <c r="J116" t="n">
         <v>9.220000000000001</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>9.02</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>10.53</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="117">
@@ -21006,11 +21012,13 @@
       <c r="J116" t="n">
         <v>7.6</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>8.4</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.01</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="117">
@@ -26098,11 +26106,13 @@
       <c r="J116" t="n">
         <v>6.8</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>6.6</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.390000000000001</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="117">
@@ -31284,11 +31294,13 @@
       <c r="J116" t="n">
         <v>6.2</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>6.6</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>7.87</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="117">
@@ -36470,11 +36482,13 @@
       <c r="J116" t="n">
         <v>6.8</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>7.1</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.609999999999999</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="117">
@@ -41656,11 +41670,13 @@
       <c r="J116" t="n">
         <v>7.79</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>8</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.17</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="117">
@@ -46842,11 +46858,13 @@
       <c r="J116" t="n">
         <v>7.79</v>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>8</v>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.17</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -5533,10 +5533,12 @@
       <c r="K116" t="n">
         <v>11.9</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>13.2</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>12.25</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="117">
@@ -10639,10 +10641,12 @@
       <c r="K116" t="n">
         <v>6.4</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>8.699999999999999</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>7.36</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="117">
@@ -15827,10 +15831,12 @@
       <c r="K116" t="n">
         <v>9.02</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>10.92</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>10.38</v>
+        <v>10.43</v>
       </c>
     </row>
     <row r="117">
@@ -21015,10 +21021,12 @@
       <c r="K116" t="n">
         <v>8.4</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>10.3</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.949999999999999</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="117">
@@ -26109,10 +26117,12 @@
       <c r="K116" t="n">
         <v>6.6</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>9.1</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.210000000000001</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="117">
@@ -31297,10 +31307,12 @@
       <c r="K116" t="n">
         <v>6.6</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>8.5</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>7.74</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="117">
@@ -36485,10 +36497,12 @@
       <c r="K116" t="n">
         <v>7.1</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>8.9</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>8.460000000000001</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="117">
@@ -41673,10 +41687,12 @@
       <c r="K116" t="n">
         <v>8</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>9.949999999999999</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.050000000000001</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="117">
@@ -46861,10 +46877,12 @@
       <c r="K116" t="n">
         <v>8</v>
       </c>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>9.949999999999999</v>
+      </c>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="n">
-        <v>9.050000000000001</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="117">

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5536,54 +5536,74 @@
       <c r="L116" t="n">
         <v>13.2</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>16.3</v>
+      </c>
       <c r="N116" t="n">
-        <v>12.34</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>16.11</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>16.57</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>14.92</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>12.85</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>10.75</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>8.720000000000001</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>7.65</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>8.33</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>9.75</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>11.27</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>12.8</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>14.99</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>12.06</v>
       </c>
     </row>
@@ -5598,7 +5618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10644,54 +10664,74 @@
       <c r="L116" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>12.1</v>
+      </c>
       <c r="N116" t="n">
-        <v>7.48</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>11.28</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>11.16</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>9.460000000000001</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>7.12</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>5.01</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>3.08</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>2.75</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>3.51</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>4.92</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>6.5</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>7.88</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>10.28</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>6.9</v>
       </c>
     </row>
@@ -10706,7 +10746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15834,54 +15874,74 @@
       <c r="L116" t="n">
         <v>10.92</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>13.12</v>
+      </c>
       <c r="N116" t="n">
-        <v>10.43</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>13.58</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>13.84</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>12.61</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>10.92</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>9.359999999999999</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>7.27</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>6.58</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>6.92</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>8.039999999999999</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>9.1</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>10.27</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>12.34</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>10.07</v>
       </c>
     </row>
@@ -15896,7 +15956,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21024,54 +21084,74 @@
       <c r="L116" t="n">
         <v>10.3</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>14.4</v>
+      </c>
       <c r="N116" t="n">
-        <v>9.07</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>13.74</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>13.73</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>11.73</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>9.01</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>6.33</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>3.54</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>2.56</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>4.04</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>6.13</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>8.25</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>9.91</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>12.47</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>8.449999999999999</v>
       </c>
     </row>
@@ -21086,7 +21166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26120,54 +26200,74 @@
       <c r="L116" t="n">
         <v>9.1</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>12.2</v>
+      </c>
       <c r="N116" t="n">
-        <v>8.289999999999999</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>12</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>12.14</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>10.57</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>8.56</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>6.51</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>4.2</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>3.13</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>4.22</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>5.9</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>7.53</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>8.81</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>10.88</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>7.87</v>
       </c>
     </row>
@@ -26182,7 +26282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31310,54 +31410,74 @@
       <c r="L116" t="n">
         <v>8.5</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>11.9</v>
+      </c>
       <c r="N116" t="n">
-        <v>7.81</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>11.74</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>11.71</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>9.92</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>7.31</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>4.82</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>2.15</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>1.59</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>2.89</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>4.69</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>6.48</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>8.09</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>10.46</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>6.82</v>
       </c>
     </row>
@@ -31372,7 +31492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36500,54 +36620,74 @@
       <c r="L116" t="n">
         <v>8.9</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>11.2</v>
+      </c>
       <c r="N116" t="n">
-        <v>8.5</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>11.56</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>11.47</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>10.2</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>8.19</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>6.05</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>3.85</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>3.02</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>4.21</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>5.71</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>7</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>8.51</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>10.45</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>7.52</v>
       </c>
     </row>
@@ -36562,7 +36702,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41690,54 +41830,74 @@
       <c r="L116" t="n">
         <v>9.949999999999999</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>13.03</v>
+      </c>
       <c r="N116" t="n">
-        <v>9.130000000000001</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>12.86</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>12.95</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>11.36</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>6.98</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>4.69</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>3.9</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>4.88</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>6.45</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>8.02</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>9.470000000000001</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>11.69</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>8.529999999999999</v>
       </c>
     </row>
@@ -41752,7 +41912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46880,54 +47040,74 @@
       <c r="L116" t="n">
         <v>9.949999999999999</v>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>13.03</v>
+      </c>
       <c r="N116" t="n">
-        <v>9.130000000000001</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B118" t="n">
         <v>12.86</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C118" t="n">
         <v>12.95</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D118" t="n">
         <v>11.36</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E118" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F118" t="n">
         <v>6.98</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G118" t="n">
         <v>4.69</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H118" t="n">
         <v>3.9</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I118" t="n">
         <v>4.88</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J118" t="n">
         <v>6.45</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K118" t="n">
         <v>8.02</v>
       </c>
-      <c r="L117" t="n">
+      <c r="L118" t="n">
         <v>9.470000000000001</v>
       </c>
-      <c r="M117" t="n">
+      <c r="M118" t="n">
         <v>11.69</v>
       </c>
-      <c r="N117" t="n">
+      <c r="N118" t="n">
         <v>8.529999999999999</v>
       </c>
     </row>

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -5547,7 +5547,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>17.5</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -5559,7 +5561,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -10675,7 +10679,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>12.6</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -10687,7 +10693,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>12.6</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -15885,7 +15893,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>14.82</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -15897,7 +15907,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>14.82</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -21095,7 +21107,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>14.7</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -21107,7 +21121,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -26211,7 +26227,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>12.4</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -26223,7 +26241,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -31421,7 +31441,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>13</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -31433,7 +31455,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -36631,7 +36655,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>12</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -36643,7 +36669,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -41841,7 +41869,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>13.86</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -41853,7 +41883,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>13.86</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -47051,7 +47083,9 @@
       <c r="A117" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="B117" t="inlineStr"/>
+      <c r="B117" t="n">
+        <v>13.86</v>
+      </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -47063,7 +47097,9 @@
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>13.86</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -5550,7 +5550,9 @@
       <c r="B117" t="n">
         <v>17.5</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>16</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -5562,7 +5564,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>17.5</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="118">
@@ -10682,7 +10684,9 @@
       <c r="B117" t="n">
         <v>12.6</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>10.7</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -10694,7 +10698,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.6</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="118">
@@ -15896,7 +15900,9 @@
       <c r="B117" t="n">
         <v>14.82</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>14.12</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -15908,7 +15914,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.82</v>
+        <v>14.47</v>
       </c>
     </row>
     <row r="118">
@@ -21110,7 +21116,9 @@
       <c r="B117" t="n">
         <v>14.7</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>13.5</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -21122,7 +21130,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.7</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="118">
@@ -26230,7 +26238,9 @@
       <c r="B117" t="n">
         <v>12.4</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>10.4</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -26242,7 +26252,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.4</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="118">
@@ -31444,7 +31454,9 @@
       <c r="B117" t="n">
         <v>13</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>11.2</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -31456,7 +31468,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="118">
@@ -36658,7 +36670,9 @@
       <c r="B117" t="n">
         <v>12</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>11.6</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -36670,7 +36684,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="118">
@@ -41872,7 +41886,9 @@
       <c r="B117" t="n">
         <v>13.86</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>12.5</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -41884,7 +41900,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.86</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="118">
@@ -47086,7 +47102,9 @@
       <c r="B117" t="n">
         <v>13.86</v>
       </c>
-      <c r="C117" t="inlineStr"/>
+      <c r="C117" t="n">
+        <v>12.5</v>
+      </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -47098,7 +47116,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.86</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -5553,7 +5553,9 @@
       <c r="C117" t="n">
         <v>16</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>14</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -5564,7 +5566,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>16.75</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="118">
@@ -10687,7 +10689,9 @@
       <c r="C117" t="n">
         <v>10.7</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>7.9</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -10698,7 +10702,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.65</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="118">
@@ -15903,7 +15907,9 @@
       <c r="C117" t="n">
         <v>14.12</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>11.82</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -15914,7 +15920,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.47</v>
+        <v>13.59</v>
       </c>
     </row>
     <row r="118">
@@ -21119,7 +21125,9 @@
       <c r="C117" t="n">
         <v>13.5</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>10.7</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -21130,7 +21138,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.1</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="118">
@@ -26241,7 +26249,9 @@
       <c r="C117" t="n">
         <v>10.4</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -26252,7 +26262,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.4</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="118">
@@ -31457,7 +31467,9 @@
       <c r="C117" t="n">
         <v>11.2</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>8.699999999999999</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -31468,7 +31480,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.1</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="118">
@@ -36673,7 +36685,9 @@
       <c r="C117" t="n">
         <v>11.6</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -36684,7 +36698,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.8</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="118">
@@ -41889,7 +41903,9 @@
       <c r="C117" t="n">
         <v>12.5</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>10.22</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -41900,7 +41916,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.18</v>
+        <v>12.19</v>
       </c>
     </row>
     <row r="118">
@@ -47105,7 +47121,9 @@
       <c r="C117" t="n">
         <v>12.5</v>
       </c>
-      <c r="D117" t="inlineStr"/>
+      <c r="D117" t="n">
+        <v>10.22</v>
+      </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
@@ -47116,7 +47134,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.18</v>
+        <v>12.19</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -5402,7 +5402,7 @@
         <v>12</v>
       </c>
       <c r="L113" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="M113" t="n">
         <v>15</v>
@@ -5556,7 +5556,9 @@
       <c r="D117" t="n">
         <v>14</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>13.5</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -5566,7 +5568,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>15.83</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="118">
@@ -5606,7 +5608,7 @@
         <v>11.27</v>
       </c>
       <c r="L118" t="n">
-        <v>12.8</v>
+        <v>12.79</v>
       </c>
       <c r="M118" t="n">
         <v>14.99</v>
@@ -10576,7 +10578,7 @@
         <v>4.1</v>
       </c>
       <c r="J114" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="K114" t="n">
         <v>8.4</v>
@@ -10588,7 +10590,7 @@
         <v>13.3</v>
       </c>
       <c r="N114" t="n">
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="115">
@@ -10692,7 +10694,9 @@
       <c r="D117" t="n">
         <v>7.9</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>6.7</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -10702,7 +10706,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.4</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="118">
@@ -15867,7 +15871,7 @@
         <v>12.82</v>
       </c>
       <c r="E116" t="n">
-        <v>11.62</v>
+        <v>11.52</v>
       </c>
       <c r="F116" t="n">
         <v>11.42</v>
@@ -15894,7 +15898,7 @@
         <v>13.12</v>
       </c>
       <c r="N116" t="n">
-        <v>10.65</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="117">
@@ -15910,7 +15914,9 @@
       <c r="D117" t="n">
         <v>11.82</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>11.12</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -15920,7 +15926,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.59</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="118">
@@ -21128,7 +21134,9 @@
       <c r="D117" t="n">
         <v>10.7</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>9.9</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -21138,7 +21146,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.97</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="118">
@@ -26252,7 +26260,9 @@
       <c r="D117" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>9.1</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -26262,7 +26272,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.67</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="118">
@@ -31470,7 +31480,9 @@
       <c r="D117" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>7.7</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -31480,7 +31492,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.97</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="118">
@@ -36688,7 +36700,9 @@
       <c r="D117" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>8.300000000000001</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -36698,7 +36712,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.93</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="118">
@@ -41752,7 +41766,7 @@
         <v>9.1</v>
       </c>
       <c r="L113" t="n">
-        <v>10.65</v>
+        <v>10.63</v>
       </c>
       <c r="M113" t="n">
         <v>11.73</v>
@@ -41790,7 +41804,7 @@
         <v>5.9</v>
       </c>
       <c r="J114" t="n">
-        <v>6.49</v>
+        <v>6.47</v>
       </c>
       <c r="K114" t="n">
         <v>9.5</v>
@@ -41863,7 +41877,7 @@
         <v>11.32</v>
       </c>
       <c r="E116" t="n">
-        <v>10.52</v>
+        <v>10.5</v>
       </c>
       <c r="F116" t="n">
         <v>9.449999999999999</v>
@@ -41906,7 +41920,9 @@
       <c r="D117" t="n">
         <v>10.22</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>9.470000000000001</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -41916,7 +41932,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.19</v>
+        <v>11.51</v>
       </c>
     </row>
     <row r="118">
@@ -41956,7 +41972,7 @@
         <v>8.02</v>
       </c>
       <c r="L118" t="n">
-        <v>9.470000000000001</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="M118" t="n">
         <v>11.69</v>
@@ -46970,7 +46986,7 @@
         <v>9.1</v>
       </c>
       <c r="L113" t="n">
-        <v>10.65</v>
+        <v>10.63</v>
       </c>
       <c r="M113" t="n">
         <v>11.73</v>
@@ -47008,7 +47024,7 @@
         <v>5.9</v>
       </c>
       <c r="J114" t="n">
-        <v>6.49</v>
+        <v>6.47</v>
       </c>
       <c r="K114" t="n">
         <v>9.5</v>
@@ -47081,7 +47097,7 @@
         <v>11.32</v>
       </c>
       <c r="E116" t="n">
-        <v>10.52</v>
+        <v>10.5</v>
       </c>
       <c r="F116" t="n">
         <v>9.449999999999999</v>
@@ -47124,7 +47140,9 @@
       <c r="D117" t="n">
         <v>10.22</v>
       </c>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>9.470000000000001</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -47134,7 +47152,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.19</v>
+        <v>11.51</v>
       </c>
     </row>
     <row r="118">
@@ -47174,7 +47192,7 @@
         <v>8.02</v>
       </c>
       <c r="L118" t="n">
-        <v>9.470000000000001</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="M118" t="n">
         <v>11.69</v>

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -5559,7 +5559,9 @@
       <c r="E117" t="n">
         <v>13.5</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>9.199999999999999</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -5568,7 +5570,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>15.25</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="118">
@@ -10697,7 +10699,9 @@
       <c r="E117" t="n">
         <v>6.7</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>3</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -10706,7 +10710,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>9.48</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="118">
@@ -15917,7 +15921,9 @@
       <c r="E117" t="n">
         <v>11.12</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>7.52</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -15926,7 +15932,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.97</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="118">
@@ -21137,7 +21143,9 @@
       <c r="E117" t="n">
         <v>9.9</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>4.6</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -21146,7 +21154,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.2</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="118">
@@ -26263,7 +26271,9 @@
       <c r="E117" t="n">
         <v>9.1</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>5.2</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -26272,7 +26282,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.28</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="118">
@@ -31483,7 +31493,9 @@
       <c r="E117" t="n">
         <v>7.7</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>2.1</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -31492,7 +31504,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.15</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="118">
@@ -36703,7 +36715,9 @@
       <c r="E117" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>5.3</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -36712,7 +36726,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.27</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="118">
@@ -41923,7 +41937,9 @@
       <c r="E117" t="n">
         <v>9.470000000000001</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>5.27</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -41932,7 +41948,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.51</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="118">
@@ -47143,7 +47159,9 @@
       <c r="E117" t="n">
         <v>9.470000000000001</v>
       </c>
-      <c r="F117" t="inlineStr"/>
+      <c r="F117" t="n">
+        <v>5.27</v>
+      </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
@@ -47152,7 +47170,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.51</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -5562,7 +5562,9 @@
       <c r="F117" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>10.1</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -5570,7 +5572,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>14.04</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="118">
@@ -10702,7 +10704,9 @@
       <c r="F117" t="n">
         <v>3</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>3.2</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -10710,7 +10714,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.18</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="118">
@@ -15924,7 +15928,9 @@
       <c r="F117" t="n">
         <v>7.52</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>8.119999999999999</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -15932,7 +15938,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.88</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="118">
@@ -21146,7 +21152,9 @@
       <c r="F117" t="n">
         <v>4.6</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>5.2</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -21154,7 +21162,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.68</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="118">
@@ -26274,7 +26282,9 @@
       <c r="F117" t="n">
         <v>5.2</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>5.7</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -26282,7 +26292,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>9.26</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="118">
@@ -31496,7 +31506,9 @@
       <c r="F117" t="n">
         <v>2.1</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>3.3</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -31504,7 +31516,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.539999999999999</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="118">
@@ -36718,7 +36730,9 @@
       <c r="F117" t="n">
         <v>5.3</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>6.2</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -36726,7 +36740,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>9.279999999999999</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="118">
@@ -41940,7 +41954,9 @@
       <c r="F117" t="n">
         <v>5.27</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>5.97</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -41948,7 +41964,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.26</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -47162,7 +47178,9 @@
       <c r="F117" t="n">
         <v>5.27</v>
       </c>
-      <c r="G117" t="inlineStr"/>
+      <c r="G117" t="n">
+        <v>5.97</v>
+      </c>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -47170,7 +47188,7 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.26</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -5565,14 +5565,16 @@
       <c r="G117" t="n">
         <v>10.1</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>7.9</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>13.38</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="118">
@@ -10707,14 +10709,16 @@
       <c r="G117" t="n">
         <v>3.2</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>3.1</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>7.35</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="118">
@@ -15931,14 +15935,16 @@
       <c r="G117" t="n">
         <v>8.119999999999999</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>7.52</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.25</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="118">
@@ -21155,14 +21161,16 @@
       <c r="G117" t="n">
         <v>5.2</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>3.8</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>9.77</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="118">
@@ -26285,14 +26293,16 @@
       <c r="G117" t="n">
         <v>5.7</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>4.2</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.67</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="118">
@@ -31509,14 +31519,16 @@
       <c r="G117" t="n">
         <v>3.3</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>2.8</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>7.67</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="118">
@@ -36733,14 +36745,16 @@
       <c r="G117" t="n">
         <v>6.2</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>5.5</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.77</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -41957,14 +41971,16 @@
       <c r="G117" t="n">
         <v>5.97</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>4.97</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>9.550000000000001</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -47181,14 +47197,16 @@
       <c r="G117" t="n">
         <v>5.97</v>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>4.97</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>9.550000000000001</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMin_rounded" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NZT7_TMin_unrounded" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Auckland" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Masterton" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Wellington" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Nelson" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hokitika" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Lincoln" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Dunedin" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="NZT7_TMin_rounded" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="NZT7_TMin_unrounded" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,7 +58,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -5568,13 +5567,15 @@
       <c r="H117" t="n">
         <v>7.9</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>8.6</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="118">
@@ -10712,13 +10713,15 @@
       <c r="H117" t="n">
         <v>3.1</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>4.2</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>6.74</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="118">
@@ -15938,13 +15941,15 @@
       <c r="H117" t="n">
         <v>7.52</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>8.02</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.72</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="118">
@@ -21164,13 +21169,15 @@
       <c r="H117" t="n">
         <v>3.8</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>4.6</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.91</v>
+        <v>8.380000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -26296,13 +26303,15 @@
       <c r="H117" t="n">
         <v>4.2</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>5.2</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.029999999999999</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="118">
@@ -31522,13 +31531,15 @@
       <c r="H117" t="n">
         <v>2.8</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>3.7</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>6.97</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="118">
@@ -36748,13 +36759,15 @@
       <c r="H117" t="n">
         <v>5.5</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>4.6</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.300000000000001</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="118">
@@ -41974,13 +41987,15 @@
       <c r="H117" t="n">
         <v>4.97</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>5.56</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.890000000000001</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="118">
@@ -47200,13 +47215,15 @@
       <c r="H117" t="n">
         <v>4.97</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>5.56</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.890000000000001</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -5570,12 +5570,14 @@
       <c r="I117" t="n">
         <v>8.6</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10.9</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>12.1</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="118">
@@ -10716,12 +10718,14 @@
       <c r="I117" t="n">
         <v>4.2</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5.5</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>6.43</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="118">
@@ -15944,12 +15948,14 @@
       <c r="I117" t="n">
         <v>8.02</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>8.619999999999999</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.38</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="118">
@@ -21172,12 +21178,14 @@
       <c r="I117" t="n">
         <v>4.6</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>5.9</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.380000000000001</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="118">
@@ -26306,12 +26314,14 @@
       <c r="I117" t="n">
         <v>5.2</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>7.68</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="118">
@@ -31534,12 +31544,14 @@
       <c r="I117" t="n">
         <v>3.7</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>4.9</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>6.56</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="118">
@@ -36762,12 +36774,14 @@
       <c r="I117" t="n">
         <v>4.6</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6.2</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>7.84</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="118">
@@ -41990,12 +42004,14 @@
       <c r="I117" t="n">
         <v>5.56</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6.86</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.48</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="118">
@@ -47218,12 +47234,14 @@
       <c r="I117" t="n">
         <v>5.56</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6.86</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.48</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -5573,11 +5573,13 @@
       <c r="J117" t="n">
         <v>10.9</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>11.7</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>11.97</v>
+        <v>11.94</v>
       </c>
     </row>
     <row r="118">
@@ -10721,11 +10723,13 @@
       <c r="J117" t="n">
         <v>5.5</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>7.3</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>6.32</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="118">
@@ -15951,11 +15955,13 @@
       <c r="J117" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>10.02</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>10.19</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="118">
@@ -21181,11 +21187,13 @@
       <c r="J117" t="n">
         <v>5.9</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>9.1</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="118">
@@ -26317,11 +26325,13 @@
       <c r="J117" t="n">
         <v>6</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>8.199999999999999</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>7.49</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="118">
@@ -31547,11 +31557,13 @@
       <c r="J117" t="n">
         <v>4.9</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>7.2</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>6.38</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="118">
@@ -36777,11 +36789,13 @@
       <c r="J117" t="n">
         <v>6.2</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>8</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>7.66</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="118">
@@ -42007,11 +42021,13 @@
       <c r="J117" t="n">
         <v>6.86</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>8.789999999999999</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.300000000000001</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="118">
@@ -47237,11 +47253,13 @@
       <c r="J117" t="n">
         <v>6.86</v>
       </c>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>8.789999999999999</v>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>8.300000000000001</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="118">

--- a/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
+++ b/seven_station_series_output/data/Full_TMin_rounded_all_sites_all.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5576,55 +5576,81 @@
       <c r="K117" t="n">
         <v>11.7</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="M117" t="n">
+        <v>16.2</v>
+      </c>
       <c r="N117" t="n">
-        <v>11.94</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>16.11</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>16.57</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>14.92</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>12.85</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>10.75</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>8.720000000000001</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>7.65</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>8.33</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>9.75</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>11.27</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>12.79</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>14.99</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>12.06</v>
       </c>
     </row>
@@ -5639,7 +5665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10726,55 +10752,81 @@
       <c r="K117" t="n">
         <v>7.3</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="M117" t="n">
+        <v>11.9</v>
+      </c>
       <c r="N117" t="n">
-        <v>6.42</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>11.28</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>11.16</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>9.460000000000001</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>7.12</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>5.01</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>3.08</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>2.75</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>3.51</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>4.92</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>6.5</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>7.88</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>10.28</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>6.9</v>
       </c>
     </row>
@@ -10789,7 +10841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15958,55 +16010,81 @@
       <c r="K117" t="n">
         <v>10.02</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="M117" t="n">
+        <v>13.82</v>
+      </c>
       <c r="N117" t="n">
-        <v>10.17</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>13.58</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>13.84</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>12.61</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>10.92</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>9.359999999999999</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>7.27</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>6.58</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>6.92</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>8.039999999999999</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>9.1</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>10.27</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>12.34</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>10.07</v>
       </c>
     </row>
@@ -16021,7 +16099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21190,55 +21268,81 @@
       <c r="K117" t="n">
         <v>9.1</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="M117" t="n">
+        <v>14.2</v>
+      </c>
       <c r="N117" t="n">
-        <v>8.199999999999999</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>13.74</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>13.73</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>11.73</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>9.01</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>6.33</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>3.54</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>2.56</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>4.04</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>6.13</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>8.25</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>9.91</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>12.47</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>8.449999999999999</v>
       </c>
     </row>
@@ -21253,7 +21357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26328,55 +26432,75 @@
       <c r="K117" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>9.300000000000001</v>
+      </c>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="n">
-        <v>7.56</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>12</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>12.14</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>10.57</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>8.56</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>6.51</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>4.2</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>3.13</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>4.22</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>5.9</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>7.53</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>8.81</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>10.88</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>7.87</v>
       </c>
     </row>
@@ -26391,7 +26515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31560,55 +31684,81 @@
       <c r="K117" t="n">
         <v>7.2</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M117" t="n">
+        <v>11.7</v>
+      </c>
       <c r="N117" t="n">
-        <v>6.46</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>11.74</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>11.71</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>9.92</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>7.31</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>4.82</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>2.15</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>1.59</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>2.89</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>4.69</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>6.48</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>8.09</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>10.46</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>6.82</v>
       </c>
     </row>
@@ -31623,7 +31773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36792,55 +36942,81 @@
       <c r="K117" t="n">
         <v>8</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="M117" t="n">
+        <v>12.1</v>
+      </c>
       <c r="N117" t="n">
-        <v>7.69</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>11.56</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>11.47</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>10.2</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>8.19</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>6.05</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>3.85</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>3.02</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>4.21</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>5.71</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>7</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>8.51</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>10.45</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>7.52</v>
       </c>
     </row>
@@ -36855,7 +37031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42024,55 +42200,81 @@
       <c r="K117" t="n">
         <v>8.789999999999999</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="M117" t="n">
+        <v>13.32</v>
+      </c>
       <c r="N117" t="n">
-        <v>8.35</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>12.86</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>12.95</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>11.36</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>6.98</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>4.69</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>3.9</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>4.88</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>6.45</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>8.02</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>9.460000000000001</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>11.69</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>8.529999999999999</v>
       </c>
     </row>
@@ -42087,7 +42289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47256,55 +47458,81 @@
       <c r="K117" t="n">
         <v>8.789999999999999</v>
       </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="M117" t="n">
+        <v>13.32</v>
+      </c>
       <c r="N117" t="n">
-        <v>8.35</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B118" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
         <is>
           <t>Climatology1991-2020</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B119" t="n">
         <v>12.86</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C119" t="n">
         <v>12.95</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D119" t="n">
         <v>11.36</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E119" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F119" t="n">
         <v>6.98</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G119" t="n">
         <v>4.69</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H119" t="n">
         <v>3.9</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I119" t="n">
         <v>4.88</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J119" t="n">
         <v>6.45</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K119" t="n">
         <v>8.02</v>
       </c>
-      <c r="L118" t="n">
+      <c r="L119" t="n">
         <v>9.460000000000001</v>
       </c>
-      <c r="M118" t="n">
+      <c r="M119" t="n">
         <v>11.69</v>
       </c>
-      <c r="N118" t="n">
+      <c r="N119" t="n">
         <v>8.529999999999999</v>
       </c>
     </row>
